--- a/informacion_pais.xlsx
+++ b/informacion_pais.xlsx
@@ -478,38 +478,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Noruega</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Americas</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Caribbean</t>
+          <t>Northern Europe</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3194034</v>
+        <v>5379475</v>
       </c>
       <c r="F2" t="n">
-        <v>8870</v>
+        <v>323802</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>English, Spanish</t>
+          <t>Norwegian Nynorsk, Norwegian Bokmål, Sami</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>United States dollar</t>
+          <t>Norwegian krone</t>
         </is>
       </c>
     </row>
